--- a/tables/crosstab/crosstab_safety_time/physically VS frequently.xlsx
+++ b/tables/crosstab/crosstab_safety_time/physically VS frequently.xlsx
@@ -462,28 +462,28 @@
         <v>47</v>
       </c>
       <c r="D2">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F2">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G2">
-        <v>11.76</v>
+        <v>12</v>
       </c>
       <c r="H2">
-        <v>11.52</v>
+        <v>11.75</v>
       </c>
       <c r="I2">
-        <v>19.12</v>
+        <v>18.75</v>
       </c>
       <c r="J2">
-        <v>3.68</v>
+        <v>3.25</v>
       </c>
       <c r="K2">
-        <v>46.08</v>
+        <v>45.75</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -491,34 +491,34 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3">
         <v>67</v>
       </c>
       <c r="D3">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E3">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G3">
         <v>12.25</v>
       </c>
       <c r="H3">
-        <v>16.42</v>
+        <v>16.75</v>
       </c>
       <c r="I3">
-        <v>21.57</v>
+        <v>21.75</v>
       </c>
       <c r="J3">
-        <v>3.68</v>
+        <v>3.5</v>
       </c>
       <c r="K3">
-        <v>53.92</v>
+        <v>54.25</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -526,31 +526,31 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C4">
         <v>114</v>
       </c>
       <c r="D4">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E4">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F4">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="G4">
-        <v>24.02</v>
+        <v>24.25</v>
       </c>
       <c r="H4">
-        <v>27.94</v>
+        <v>28.5</v>
       </c>
       <c r="I4">
-        <v>40.69</v>
+        <v>40.5</v>
       </c>
       <c r="J4">
-        <v>7.35</v>
+        <v>6.75</v>
       </c>
       <c r="K4">
         <v>100</v>
